--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86370.39669975844</v>
+        <v>84482.81518335603</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>355.9353498769361</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78.29200324836498</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.3146221044421</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>17.71051693380591</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>34.50046002839205</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>77.72878559814581</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>193.5756411391281</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>65.47263449909431</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1184,7 +1184,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>205.3588765641666</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>17.76048959327968</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.90277548231339</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560521</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>66.62250434554073</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>189.9664086064082</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>240.4462986726078</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>144.4496459784222</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>64.59541448122093</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>36.16242322205443</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>33.65920278999603</v>
       </c>
       <c r="G22" t="n">
-        <v>55.24152434547834</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>131.7932204672246</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>94.7474501508858</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>144.6364698174274</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>140.4025572206006</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700705</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965504</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>90.21779139437393</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
-        <v>11.2039937625424</v>
+        <v>93.71057173897881</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571468</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523563</v>
+        <v>34.69722291589103</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.03409577002</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463001</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1739.654191907093</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.691674966682</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D2" t="n">
-        <v>1370.691674966682</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E2" t="n">
-        <v>984.9034223684375</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>550.9896214861826</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>133.0258133843695</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.654191907093</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.654191907093</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>716.700072989826</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>716.700072989826</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>489.3918856584278</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>489.3918856584278</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>489.3918856584278</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>268.5993065148977</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.708500331692</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1739.708500331692</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1381.442801724941</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1739.708500331692</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C7" t="n">
-        <v>279.3468541648867</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>279.3468541648867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>279.3468541648867</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>132.4569066669764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>132.4569066669764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>532.5980335608502</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1602.311532020473</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1244.045833413723</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>858.2575808154786</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>447.271676025871</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2313.538394681719</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2313.538394681719</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>1982.475507338148</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.475507338148</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.475507338148</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1982.475507338148</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C10" t="n">
-        <v>546.4805193761945</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D10" t="n">
-        <v>546.4805193761945</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="E10" t="n">
-        <v>398.5674257938014</v>
+        <v>229.6312428658946</v>
       </c>
       <c r="F10" t="n">
-        <v>398.5674257938014</v>
+        <v>229.6312428658946</v>
       </c>
       <c r="G10" t="n">
-        <v>229.5676255321338</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>229.5676255321338</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>93.23871463078203</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>799.6537879979907</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7176050700838</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>480.600965657748</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>332.6878720753549</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471137</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974661</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980058</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585741</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557897</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1307.031009339303</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1052.346521133416</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.446367141521</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y13" t="n">
-        <v>799.6537879979907</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1256.041221393652</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>966.6240513566914</v>
+        <v>874.5376338299833</v>
       </c>
       <c r="X16" t="n">
-        <v>966.6240513566914</v>
+        <v>646.548082931966</v>
       </c>
       <c r="Y16" t="n">
-        <v>745.8314722131613</v>
+        <v>425.7555037884359</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805466</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.3990000507114</v>
+        <v>826.1356072130305</v>
       </c>
       <c r="C19" t="n">
-        <v>562.3990000507114</v>
+        <v>657.1994242851237</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>507.0827848727879</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1322.593273704354</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1322.593273704354</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1033.464634917912</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1033.464634917912</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>744.0474648809511</v>
+        <v>1007.78407204327</v>
       </c>
       <c r="X19" t="n">
-        <v>744.0474648809511</v>
+        <v>1007.78407204327</v>
       </c>
       <c r="Y19" t="n">
-        <v>744.0474648809511</v>
+        <v>1007.78407204327</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5835,19 +5835,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.0220331715246</v>
+        <v>916.7755322525275</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0858502436178</v>
+        <v>747.8393493246206</v>
       </c>
       <c r="D22" t="n">
-        <v>414.9692108312821</v>
+        <v>597.7227099122848</v>
       </c>
       <c r="E22" t="n">
-        <v>414.9692108312821</v>
+        <v>449.8096163298917</v>
       </c>
       <c r="F22" t="n">
-        <v>414.9692108312821</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.063975947119</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X22" t="n">
-        <v>954.8146123150548</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.0220331715246</v>
+        <v>1098.423997082767</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>773.166147484815</v>
+        <v>807.0580565471724</v>
       </c>
       <c r="C25" t="n">
-        <v>773.166147484815</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D25" t="n">
-        <v>623.0495080724793</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>359.169691290395</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y25" t="n">
-        <v>954.8146123150548</v>
+        <v>988.7065213774122</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>881.7531914306746</v>
+        <v>843.8929204411534</v>
       </c>
       <c r="C28" t="n">
-        <v>712.8170085027677</v>
+        <v>674.9567375132465</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904321</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904321</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925218</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1352.818826297875</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1352.818826297875</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1352.818826297875</v>
+        <v>1133.310090478114</v>
       </c>
       <c r="W28" t="n">
-        <v>1063.401656260914</v>
+        <v>843.8929204411534</v>
       </c>
       <c r="X28" t="n">
-        <v>1063.401656260914</v>
+        <v>843.8929204411534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1063.401656260914</v>
+        <v>843.8929204411534</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>611.7611155708664</v>
+        <v>658.7225911205015</v>
       </c>
       <c r="C31" t="n">
-        <v>498.5857979243303</v>
+        <v>545.5472734739657</v>
       </c>
       <c r="D31" t="n">
-        <v>404.2300237933655</v>
+        <v>451.1914993430009</v>
       </c>
       <c r="E31" t="n">
-        <v>312.0777954923433</v>
+        <v>451.1914993430009</v>
       </c>
       <c r="F31" t="n">
-        <v>220.9487132758038</v>
+        <v>360.0624171264614</v>
       </c>
       <c r="G31" t="n">
-        <v>108.5342568769954</v>
+        <v>247.647960727653</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569673</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353694</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056077</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1901.078363141036</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1756.919218337959</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1588.894668408836</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1355.526894903765</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1355.526894903765</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818945</v>
+        <v>1121.870590148176</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818945</v>
+        <v>949.6419045315293</v>
       </c>
       <c r="Y31" t="n">
-        <v>737.6487151197352</v>
+        <v>784.6101906693702</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229663</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506716</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="35">
@@ -6923,43 +6923,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798296</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,64 +7306,64 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083212</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504517</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>223.6742649934481</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>78.79854367739051</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037943</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>96.27094379216913</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>11.69134465122022</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>142.0733523581688</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>133.3253955023823</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>250.3605751145366</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>111.7618452329352</v>
       </c>
       <c r="G22" t="n">
-        <v>111.2520441178992</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,7 +24184,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>35.45360063140319</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>51.68651249568337</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>76.91109124096175</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>111.7350861032274</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801186</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>82.50657797643655</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571482</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.06387285934427</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.342925770586589e-12</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1096716.728174995</v>
+        <v>1096716.728174994</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1096716.728174995</v>
+        <v>1096716.728174994</v>
       </c>
     </row>
     <row r="8">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="C2" t="n">
         <v>307890.6636991064</v>
-      </c>
-      <c r="C2" t="n">
-        <v>307890.6636991065</v>
       </c>
       <c r="D2" t="n">
         <v>307890.6636991065</v>
       </c>
       <c r="E2" t="n">
+        <v>293271.7948032813</v>
+      </c>
+      <c r="F2" t="n">
         <v>293271.7948032814</v>
-      </c>
-      <c r="F2" t="n">
-        <v>293271.7948032815</v>
       </c>
       <c r="G2" t="n">
         <v>293271.7948032815</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032817</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032816</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089527</v>
+        <v>305116.6030089525</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="M2" t="n">
         <v>307890.6636991063</v>
@@ -26350,7 +26350,7 @@
         <v>307890.6636991063</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="P2" t="n">
         <v>307890.6636991063</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284586</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086665</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284583</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26433,16 +26433,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106733</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,10 +26451,10 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-530569.1613653719</v>
+        <v>-530569.161365372</v>
       </c>
       <c r="C6" t="n">
         <v>59398.71784917262</v>
       </c>
       <c r="D6" t="n">
-        <v>59398.71784917262</v>
+        <v>59398.71784917267</v>
       </c>
       <c r="E6" t="n">
-        <v>-346050.1752092021</v>
+        <v>-346147.6343351742</v>
       </c>
       <c r="F6" t="n">
-        <v>179109.8612676941</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="G6" t="n">
-        <v>179109.8612676941</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="H6" t="n">
-        <v>179109.8612676943</v>
+        <v>179012.4021417219</v>
       </c>
       <c r="I6" t="n">
-        <v>179109.8612676941</v>
+        <v>179012.4021417217</v>
       </c>
       <c r="J6" t="n">
-        <v>2686.642075101132</v>
+        <v>2589.182949129462</v>
       </c>
       <c r="K6" t="n">
-        <v>123986.5590748169</v>
+        <v>123968.0653368822</v>
       </c>
       <c r="L6" t="n">
         <v>155239.2562500229</v>
       </c>
       <c r="M6" t="n">
-        <v>30781.14781705258</v>
+        <v>30781.14781705248</v>
       </c>
       <c r="N6" t="n">
         <v>165582.1630508897</v>
       </c>
       <c r="O6" t="n">
-        <v>165582.1630508896</v>
+        <v>165582.1630508897</v>
       </c>
       <c r="P6" t="n">
-        <v>121419.557748044</v>
+        <v>121419.5577480438</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26747,31 +26747,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108348</v>
+        <v>12.92863350108332</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855729</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855732</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>50.94069586477536</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>245.6307695159922</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>135.3505698757158</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>364.2198531384558</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>335.230640650077</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>78.44210324364934</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>58.56200218469988</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>348.3115355217006</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>11.0894437934912</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>149.5493126657712</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>6.297183706223606</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.463149601477198e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-5.57823417087396e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.455191522836685e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855732</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,10 +33017,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33029,7 +33029,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33038,10 +33038,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35267,7 +35267,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.309841178967</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>570.7728848187828</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>472.9319699494724</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412283</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341609</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043206</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
